--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H2">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I2">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J2">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N2">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O2">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P2">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q2">
-        <v>1129.653928327786</v>
+        <v>1011.322782176625</v>
       </c>
       <c r="R2">
-        <v>10166.88535495007</v>
+        <v>9101.905039589625</v>
       </c>
       <c r="S2">
-        <v>0.1540453351916273</v>
+        <v>0.2166293582801893</v>
       </c>
       <c r="T2">
-        <v>0.1540453351916273</v>
+        <v>0.2166293582801894</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H3">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I3">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J3">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P3">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q3">
-        <v>207.5500311735396</v>
+        <v>162.814971510096</v>
       </c>
       <c r="R3">
-        <v>1867.950280561856</v>
+        <v>1465.334743590864</v>
       </c>
       <c r="S3">
-        <v>0.02830257419499135</v>
+        <v>0.03487561381810095</v>
       </c>
       <c r="T3">
-        <v>0.02830257419499135</v>
+        <v>0.03487561381810096</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H4">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I4">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J4">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N4">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P4">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q4">
-        <v>230.1786919020489</v>
+        <v>238.855989279723</v>
       </c>
       <c r="R4">
-        <v>2071.60822711844</v>
+        <v>2149.703903517507</v>
       </c>
       <c r="S4">
-        <v>0.03138833306277211</v>
+        <v>0.05116390196182622</v>
       </c>
       <c r="T4">
-        <v>0.0313883330627721</v>
+        <v>0.05116390196182623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H5">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I5">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J5">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N5">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P5">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q5">
-        <v>288.4679698441054</v>
+        <v>299.481195427023</v>
       </c>
       <c r="R5">
-        <v>2596.211728596948</v>
+        <v>2695.330758843207</v>
       </c>
       <c r="S5">
-        <v>0.03933695443565027</v>
+        <v>0.06415006200365558</v>
       </c>
       <c r="T5">
-        <v>0.03933695443565027</v>
+        <v>0.0641500620036556</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.78268133333334</v>
+        <v>14.734287</v>
       </c>
       <c r="H6">
-        <v>56.34804400000001</v>
+        <v>44.202861</v>
       </c>
       <c r="I6">
-        <v>0.286679008418643</v>
+        <v>0.4000023944294819</v>
       </c>
       <c r="J6">
-        <v>0.286679008418643</v>
+        <v>0.400002394429482</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N6">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P6">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q6">
-        <v>246.440029919452</v>
+        <v>154.915232649336</v>
       </c>
       <c r="R6">
-        <v>2217.960269275068</v>
+        <v>1394.237093844024</v>
       </c>
       <c r="S6">
-        <v>0.03360581153360194</v>
+        <v>0.03318345836570985</v>
       </c>
       <c r="T6">
-        <v>0.03360581153360193</v>
+        <v>0.03318345836570986</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>43.358832</v>
       </c>
       <c r="I7">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J7">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N7">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O7">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P7">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q7">
-        <v>869.2488934754241</v>
+        <v>992.0121371820001</v>
       </c>
       <c r="R7">
-        <v>7823.240041278816</v>
+        <v>8928.109234637999</v>
       </c>
       <c r="S7">
-        <v>0.118535184805305</v>
+        <v>0.2124929413944165</v>
       </c>
       <c r="T7">
-        <v>0.1185351848053049</v>
+        <v>0.2124929413944165</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>43.358832</v>
       </c>
       <c r="I8">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J8">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>33.150224</v>
       </c>
       <c r="O8">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P8">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q8">
         <v>159.706110353152</v>
@@ -948,10 +948,10 @@
         <v>1437.354993178368</v>
       </c>
       <c r="S8">
-        <v>0.02177833466035068</v>
+        <v>0.03420968340569443</v>
       </c>
       <c r="T8">
-        <v>0.02177833466035067</v>
+        <v>0.03420968340569445</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>43.358832</v>
       </c>
       <c r="I9">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J9">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N9">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P9">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q9">
-        <v>177.11846807248</v>
+        <v>234.295167260176</v>
       </c>
       <c r="R9">
-        <v>1594.06621265232</v>
+        <v>2108.656505341584</v>
       </c>
       <c r="S9">
-        <v>0.02415277201154988</v>
+        <v>0.05018695576350349</v>
       </c>
       <c r="T9">
-        <v>0.02415277201154988</v>
+        <v>0.0501869557635035</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>43.358832</v>
       </c>
       <c r="I10">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J10">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N10">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P10">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q10">
-        <v>221.971045558416</v>
+        <v>293.762768877776</v>
       </c>
       <c r="R10">
-        <v>1997.739410025744</v>
+        <v>2643.864919899984</v>
       </c>
       <c r="S10">
-        <v>0.03026909680781492</v>
+        <v>0.06292515231550477</v>
       </c>
       <c r="T10">
-        <v>0.03026909680781491</v>
+        <v>0.06292515231550479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>43.358832</v>
       </c>
       <c r="I11">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978801</v>
       </c>
       <c r="J11">
-        <v>0.2205944711044544</v>
+        <v>0.3923645715978802</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N11">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P11">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q11">
-        <v>189.631282593456</v>
+        <v>151.957212604032</v>
       </c>
       <c r="R11">
-        <v>1706.681543341104</v>
+        <v>1367.614913436288</v>
       </c>
       <c r="S11">
-        <v>0.02585908281943396</v>
+        <v>0.03254983871876094</v>
       </c>
       <c r="T11">
-        <v>0.02585908281943395</v>
+        <v>0.03254983871876095</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H12">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I12">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J12">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N12">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O12">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P12">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q12">
-        <v>1204.338593486194</v>
+        <v>86.44049156925001</v>
       </c>
       <c r="R12">
-        <v>10839.04734137575</v>
+        <v>777.9644241232501</v>
       </c>
       <c r="S12">
-        <v>0.1642297146635174</v>
+        <v>0.01851589675233913</v>
       </c>
       <c r="T12">
-        <v>0.1642297146635174</v>
+        <v>0.01851589675233913</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H13">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I13">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J13">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>33.150224</v>
       </c>
       <c r="O13">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P13">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q13">
-        <v>221.2717597428889</v>
+        <v>13.91623566699022</v>
       </c>
       <c r="R13">
-        <v>1991.445837686</v>
+        <v>125.246121002912</v>
       </c>
       <c r="S13">
-        <v>0.03017373864975753</v>
+        <v>0.002980912973924749</v>
       </c>
       <c r="T13">
-        <v>0.03017373864975753</v>
+        <v>0.002980912973924749</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H14">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I14">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J14">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N14">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P14">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q14">
-        <v>245.3964662134722</v>
+        <v>20.41566697742289</v>
       </c>
       <c r="R14">
-        <v>2208.56819592125</v>
+        <v>183.741002796806</v>
       </c>
       <c r="S14">
-        <v>0.03346350589746837</v>
+        <v>0.004373116985125696</v>
       </c>
       <c r="T14">
-        <v>0.03346350589746837</v>
+        <v>0.004373116985125697</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H15">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I15">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J15">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N15">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P15">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q15">
-        <v>307.5394157059583</v>
+        <v>25.59746720304511</v>
       </c>
       <c r="R15">
-        <v>2767.854741353625</v>
+        <v>230.377204827406</v>
       </c>
       <c r="S15">
-        <v>0.04193763345486724</v>
+        <v>0.005483079182552624</v>
       </c>
       <c r="T15">
-        <v>0.04193763345486724</v>
+        <v>0.005483079182552626</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.02445833333333</v>
+        <v>1.259379333333333</v>
       </c>
       <c r="H16">
-        <v>60.073375</v>
+        <v>3.778138</v>
       </c>
       <c r="I16">
-        <v>0.3056321809034097</v>
+        <v>0.03418928576783783</v>
       </c>
       <c r="J16">
-        <v>0.3056321809034098</v>
+        <v>0.03418928576783784</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N16">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P16">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q16">
-        <v>262.7328879838749</v>
+        <v>13.24102363535467</v>
       </c>
       <c r="R16">
-        <v>2364.595991854875</v>
+        <v>119.169212718192</v>
       </c>
       <c r="S16">
-        <v>0.03582758823779924</v>
+        <v>0.002836279873895635</v>
       </c>
       <c r="T16">
-        <v>0.03582758823779923</v>
+        <v>0.002836279873895636</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H17">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I17">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J17">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N17">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O17">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P17">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q17">
-        <v>329.6313876193739</v>
+        <v>310.5330327888751</v>
       </c>
       <c r="R17">
-        <v>2966.682488574364</v>
+        <v>2794.797295099875</v>
       </c>
       <c r="S17">
-        <v>0.04495020671567445</v>
+        <v>0.06651740947936675</v>
       </c>
       <c r="T17">
-        <v>0.04495020671567444</v>
+        <v>0.06651740947936677</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H18">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I18">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J18">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>33.150224</v>
       </c>
       <c r="O18">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P18">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q18">
-        <v>60.56279986336357</v>
+        <v>49.99336292775645</v>
       </c>
       <c r="R18">
-        <v>545.0651987702721</v>
+        <v>449.940266349808</v>
       </c>
       <c r="S18">
-        <v>0.0082586503451597</v>
+        <v>0.01070877698018381</v>
       </c>
       <c r="T18">
-        <v>0.008258650345159699</v>
+        <v>0.01070877698018381</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H19">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I19">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J19">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N19">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P19">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q19">
-        <v>67.1658104393089</v>
+        <v>73.3422365816588</v>
       </c>
       <c r="R19">
-        <v>604.4922939537801</v>
+        <v>660.0801292349291</v>
       </c>
       <c r="S19">
-        <v>0.009159070333917722</v>
+        <v>0.01571019849006403</v>
       </c>
       <c r="T19">
-        <v>0.00915907033391772</v>
+        <v>0.01571019849006404</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H20">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I20">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J20">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N20">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P20">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q20">
-        <v>84.17453770484735</v>
+        <v>91.95758813920322</v>
       </c>
       <c r="R20">
-        <v>757.5708393436261</v>
+        <v>827.6182932528291</v>
       </c>
       <c r="S20">
-        <v>0.01147846659068228</v>
+        <v>0.01969768075897102</v>
       </c>
       <c r="T20">
-        <v>0.01147846659068227</v>
+        <v>0.01969768075897102</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.480759333333334</v>
+        <v>4.524255666666667</v>
       </c>
       <c r="H21">
-        <v>16.442278</v>
+        <v>13.572767</v>
       </c>
       <c r="I21">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="J21">
-        <v>0.08365252134011374</v>
+        <v>0.1228232556945456</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N21">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P21">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q21">
-        <v>71.910845428174</v>
+        <v>47.56769833292534</v>
       </c>
       <c r="R21">
-        <v>647.197608853566</v>
+        <v>428.109284996328</v>
       </c>
       <c r="S21">
-        <v>0.009806127354679594</v>
+        <v>0.01018918998595997</v>
       </c>
       <c r="T21">
-        <v>0.009806127354679593</v>
+        <v>0.01018918998595998</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H22">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I22">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J22">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.14337933333334</v>
+        <v>68.63737500000001</v>
       </c>
       <c r="N22">
-        <v>180.430138</v>
+        <v>205.912125</v>
       </c>
       <c r="O22">
-        <v>0.5373443142606099</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="P22">
-        <v>0.5373443142606098</v>
+        <v>0.5415701538216162</v>
       </c>
       <c r="Q22">
-        <v>407.6107872888348</v>
+        <v>127.983377183625</v>
       </c>
       <c r="R22">
-        <v>3668.497085599514</v>
+        <v>1151.850394652625</v>
       </c>
       <c r="S22">
-        <v>0.05558387288448578</v>
+        <v>0.02741454791530447</v>
       </c>
       <c r="T22">
-        <v>0.05558387288448578</v>
+        <v>0.02741454791530447</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H23">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I23">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J23">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>33.150224</v>
       </c>
       <c r="O23">
-        <v>0.09872565958390839</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="P23">
-        <v>0.09872565958390837</v>
+        <v>0.08718851262838957</v>
       </c>
       <c r="Q23">
-        <v>74.88986625638577</v>
+        <v>20.60431177578133</v>
       </c>
       <c r="R23">
-        <v>674.008796307472</v>
+        <v>185.438805982032</v>
       </c>
       <c r="S23">
-        <v>0.01021236173364912</v>
+        <v>0.004413525450485619</v>
       </c>
       <c r="T23">
-        <v>0.01021236173364912</v>
+        <v>0.00441352545048562</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H24">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I24">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J24">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.25483666666667</v>
+        <v>16.21089566666667</v>
       </c>
       <c r="N24">
-        <v>36.76451</v>
+        <v>48.632687</v>
       </c>
       <c r="O24">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="P24">
-        <v>0.1094894712937444</v>
+        <v>0.1279089892319285</v>
       </c>
       <c r="Q24">
-        <v>83.05492104311445</v>
+        <v>30.22733859783234</v>
       </c>
       <c r="R24">
-        <v>747.49428938803</v>
+        <v>272.046047380491</v>
       </c>
       <c r="S24">
-        <v>0.01132578998803629</v>
+        <v>0.006474816031409053</v>
       </c>
       <c r="T24">
-        <v>0.01132578998803629</v>
+        <v>0.006474816031409054</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H25">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I25">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J25">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.358189</v>
+        <v>20.32546233333333</v>
       </c>
       <c r="N25">
-        <v>46.074567</v>
+        <v>60.976387</v>
       </c>
       <c r="O25">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="P25">
-        <v>0.1372160265679646</v>
+        <v>0.1603741949973873</v>
       </c>
       <c r="Q25">
-        <v>104.0873256377057</v>
+        <v>37.89948715606567</v>
       </c>
       <c r="R25">
-        <v>936.785930739351</v>
+        <v>341.095384404591</v>
       </c>
       <c r="S25">
-        <v>0.01419387527894992</v>
+        <v>0.008118220736703331</v>
       </c>
       <c r="T25">
-        <v>0.01419387527894992</v>
+        <v>0.008118220736703331</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>6.777317666666666</v>
+        <v>1.864631</v>
       </c>
       <c r="H26">
-        <v>20.331953</v>
+        <v>5.593893</v>
       </c>
       <c r="I26">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025444</v>
       </c>
       <c r="J26">
-        <v>0.1034418182333792</v>
+        <v>0.05062049251025445</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.120599</v>
+        <v>10.513928</v>
       </c>
       <c r="N26">
-        <v>39.361797</v>
+        <v>31.541784</v>
       </c>
       <c r="O26">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="P26">
-        <v>0.1172245282937728</v>
+        <v>0.08295814932067838</v>
       </c>
       <c r="Q26">
-        <v>88.92246739994899</v>
+        <v>19.604596080568</v>
       </c>
       <c r="R26">
-        <v>800.3022065995409</v>
+        <v>176.441364725112</v>
       </c>
       <c r="S26">
-        <v>0.01212591834825806</v>
+        <v>0.004199382376351969</v>
       </c>
       <c r="T26">
-        <v>0.01212591834825806</v>
+        <v>0.00419938237635197</v>
       </c>
     </row>
   </sheetData>
